--- a/src/test/java/TestData/DataDrivenOrangeHRM.xlsx
+++ b/src/test/java/TestData/DataDrivenOrangeHRM.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SukreetiSharma\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SukreetiSharma\Documents\GitHub\OrangeHRM_PIMPage\src\test\java\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CE655F49-684E-4E65-AB1B-5F83C07D27ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59B0EDA1-89AF-45A5-90C5-70D2099F8926}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{FA290C19-52AD-4A85-812E-AA576F9120DB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{FA290C19-52AD-4A85-812E-AA576F9120DB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,12 +37,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>ReportName</t>
   </si>
   <si>
     <t>Personal Report</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>MiddleName</t>
+  </si>
+  <si>
+    <t>Lastname</t>
+  </si>
+  <si>
+    <t>Adey</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Jaswal</t>
   </si>
 </sst>
 </file>
@@ -395,7 +414,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A001269C-DF7C-4238-9107-5C52983ED8FA}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -417,4 +436,46 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD6ECFE2-82F3-4210-97BB-C24E8543B86B}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.28515625" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>